--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 SC.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 SC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
   <si>
     <t>Course</t>
   </si>
@@ -184,250 +184,319 @@
     <t>TAYLOR L</t>
   </si>
   <si>
+    <t>8.91%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>50.50%</t>
+  </si>
+  <si>
+    <t>9.90%</t>
+  </si>
+  <si>
+    <t>2.97%</t>
+  </si>
+  <si>
+    <t>BIOL-602</t>
+  </si>
+  <si>
+    <t>HOLZENBURG A</t>
+  </si>
+  <si>
+    <t>BIOL-603</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>BIOL-689</t>
+  </si>
+  <si>
+    <t>ARAMAYO R</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>CHEM-101</t>
+  </si>
+  <si>
+    <t>LEUNG T</t>
+  </si>
+  <si>
+    <t>21.43%</t>
+  </si>
+  <si>
+    <t>23.81%</t>
+  </si>
+  <si>
+    <t>19.05%</t>
+  </si>
+  <si>
+    <t>11.90%</t>
+  </si>
+  <si>
+    <t>CHEM-102</t>
+  </si>
+  <si>
+    <t>DEMPSEY S</t>
+  </si>
+  <si>
+    <t>24.29%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>18.57%</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
+    <t>CHEM-111</t>
+  </si>
+  <si>
+    <t>13.79%</t>
+  </si>
+  <si>
+    <t>34.48%</t>
+  </si>
+  <si>
+    <t>6.90%</t>
+  </si>
+  <si>
+    <t>CHEM-112</t>
+  </si>
+  <si>
+    <t>23.91%</t>
+  </si>
+  <si>
+    <t>45.65%</t>
+  </si>
+  <si>
+    <t>30.43%</t>
+  </si>
+  <si>
+    <t>CHEM-222</t>
+  </si>
+  <si>
+    <t>MULLEN C</t>
+  </si>
+  <si>
+    <t>18.75%</t>
+  </si>
+  <si>
+    <t>28.13%</t>
+  </si>
+  <si>
+    <t>40.63%</t>
+  </si>
+  <si>
+    <t>9.38%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>CHEM-227</t>
+  </si>
+  <si>
+    <t>HARDING K</t>
+  </si>
+  <si>
+    <t>32.81%</t>
+  </si>
+  <si>
+    <t>26.56%</t>
+  </si>
+  <si>
+    <t>17.19%</t>
+  </si>
+  <si>
+    <t>4.69%</t>
+  </si>
+  <si>
+    <t>CHEM-228</t>
+  </si>
+  <si>
+    <t>SANTANDER P</t>
+  </si>
+  <si>
+    <t>20.73%</t>
+  </si>
+  <si>
+    <t>29.27%</t>
+  </si>
+  <si>
+    <t>26.83%</t>
+  </si>
+  <si>
+    <t>9.76%</t>
+  </si>
+  <si>
+    <t>13.41%</t>
+  </si>
+  <si>
+    <t>CHEM-237</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>24.24%</t>
+  </si>
+  <si>
+    <t>3.03%</t>
+  </si>
+  <si>
+    <t>CHEM-238</t>
+  </si>
+  <si>
+    <t>26.19%</t>
+  </si>
+  <si>
+    <t>61.90%</t>
+  </si>
+  <si>
+    <t>2.38%</t>
+  </si>
+  <si>
+    <t>CHEM-242</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
+    <t>CHEM-491</t>
+  </si>
+  <si>
+    <t>GAEDE H</t>
+  </si>
+  <si>
+    <t>YENNELLO S</t>
+  </si>
+  <si>
+    <t>MATH-131</t>
+  </si>
+  <si>
+    <t>HAMM K</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
+    <t>MATH-141</t>
+  </si>
+  <si>
+    <t>PEARLSTEIN R</t>
+  </si>
+  <si>
+    <t>19.15%</t>
+  </si>
+  <si>
+    <t>23.40%</t>
+  </si>
+  <si>
+    <t>27.66%</t>
+  </si>
+  <si>
+    <t>14.89%</t>
+  </si>
+  <si>
+    <t>ARORA R</t>
+  </si>
+  <si>
+    <t>24.32%</t>
+  </si>
+  <si>
+    <t>30.63%</t>
+  </si>
+  <si>
+    <t>16.22%</t>
+  </si>
+  <si>
+    <t>4.50%</t>
+  </si>
+  <si>
+    <t>KAHLIG J</t>
+  </si>
+  <si>
+    <t>31.67%</t>
+  </si>
+  <si>
+    <t>28.33%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>MATH-142</t>
+  </si>
+  <si>
+    <t>LI G</t>
+  </si>
+  <si>
     <t>25.00%</t>
   </si>
   <si>
-    <t>53.33%</t>
+    <t>31.25%</t>
+  </si>
+  <si>
+    <t>SENGUPTA S</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>40.00%</t>
   </si>
   <si>
     <t>10.00%</t>
   </si>
   <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>BIOL-602</t>
-  </si>
-  <si>
-    <t>HOLZENBURG A</t>
-  </si>
-  <si>
-    <t>BIOL-603</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>BIOL-689</t>
-  </si>
-  <si>
-    <t>ARAMAYO R</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>CHEM-101</t>
-  </si>
-  <si>
-    <t>LEUNG T</t>
-  </si>
-  <si>
-    <t>21.43%</t>
-  </si>
-  <si>
-    <t>23.81%</t>
-  </si>
-  <si>
-    <t>19.05%</t>
-  </si>
-  <si>
-    <t>11.90%</t>
-  </si>
-  <si>
-    <t>CHEM-102</t>
-  </si>
-  <si>
-    <t>DEMPSEY S</t>
-  </si>
-  <si>
-    <t>24.29%</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>18.57%</t>
-  </si>
-  <si>
-    <t>7.14%</t>
-  </si>
-  <si>
-    <t>CHEM-111</t>
-  </si>
-  <si>
-    <t>13.79%</t>
-  </si>
-  <si>
-    <t>34.48%</t>
-  </si>
-  <si>
-    <t>6.90%</t>
-  </si>
-  <si>
-    <t>CHEM-112</t>
-  </si>
-  <si>
-    <t>23.91%</t>
-  </si>
-  <si>
-    <t>45.65%</t>
-  </si>
-  <si>
-    <t>30.43%</t>
-  </si>
-  <si>
-    <t>CHEM-222</t>
-  </si>
-  <si>
-    <t>MULLEN C</t>
-  </si>
-  <si>
-    <t>18.75%</t>
-  </si>
-  <si>
-    <t>28.13%</t>
-  </si>
-  <si>
-    <t>40.63%</t>
-  </si>
-  <si>
-    <t>9.38%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
-    <t>CHEM-227</t>
-  </si>
-  <si>
-    <t>HARDING K</t>
-  </si>
-  <si>
-    <t>32.81%</t>
-  </si>
-  <si>
-    <t>26.56%</t>
-  </si>
-  <si>
-    <t>17.19%</t>
-  </si>
-  <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>CHEM-228</t>
-  </si>
-  <si>
-    <t>SANTANDER P</t>
-  </si>
-  <si>
-    <t>20.73%</t>
-  </si>
-  <si>
-    <t>29.27%</t>
-  </si>
-  <si>
-    <t>26.83%</t>
-  </si>
-  <si>
-    <t>9.76%</t>
-  </si>
-  <si>
-    <t>13.41%</t>
-  </si>
-  <si>
-    <t>CHEM-237</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>45.45%</t>
-  </si>
-  <si>
-    <t>24.24%</t>
-  </si>
-  <si>
-    <t>3.03%</t>
-  </si>
-  <si>
-    <t>CHEM-238</t>
-  </si>
-  <si>
-    <t>26.19%</t>
-  </si>
-  <si>
-    <t>61.90%</t>
-  </si>
-  <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>CHEM-242</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>55.56%</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
-    <t>CHEM-491</t>
-  </si>
-  <si>
-    <t>YENNELLO S</t>
-  </si>
-  <si>
-    <t>GAEDE H</t>
-  </si>
-  <si>
-    <t>MATH-131</t>
-  </si>
-  <si>
-    <t>HAMM K</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>14.29%</t>
-  </si>
-  <si>
-    <t>MATH-141</t>
-  </si>
-  <si>
-    <t>ARORA R</t>
+    <t>MAI N</t>
+  </si>
+  <si>
+    <t>13.33%</t>
   </si>
   <si>
     <t>26.67%</t>
   </si>
   <si>
-    <t>13.33%</t>
-  </si>
-  <si>
-    <t>PEARLSTEIN R</t>
-  </si>
-  <si>
-    <t>23.33%</t>
-  </si>
-  <si>
-    <t>MATH-142</t>
-  </si>
-  <si>
-    <t>SENGUPTA S</t>
-  </si>
-  <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>40.00%</t>
+    <t>KESSLER J</t>
+  </si>
+  <si>
+    <t>9.84%</t>
+  </si>
+  <si>
+    <t>13.11%</t>
+  </si>
+  <si>
+    <t>40.98%</t>
+  </si>
+  <si>
+    <t>19.67%</t>
+  </si>
+  <si>
+    <t>16.39%</t>
   </si>
   <si>
     <t>LIU W</t>
@@ -454,21 +523,9 @@
     <t>3.57%</t>
   </si>
   <si>
-    <t>KESSLER J</t>
-  </si>
-  <si>
-    <t>56.52%</t>
-  </si>
-  <si>
-    <t>17.39%</t>
-  </si>
-  <si>
     <t>LIU J</t>
   </si>
   <si>
-    <t>MAI N</t>
-  </si>
-  <si>
     <t>MATH-148</t>
   </si>
   <si>
@@ -496,13 +553,19 @@
     <t>MATH-152</t>
   </si>
   <si>
-    <t>21.88%</t>
-  </si>
-  <si>
-    <t>31.25%</t>
-  </si>
-  <si>
-    <t>12.50%</t>
+    <t>15.38%</t>
+  </si>
+  <si>
+    <t>38.46%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>9.23%</t>
+  </si>
+  <si>
+    <t>6.15%</t>
   </si>
   <si>
     <t>SHI K</t>
@@ -565,6 +628,15 @@
     <t>6.25%</t>
   </si>
   <si>
+    <t>LIANG C</t>
+  </si>
+  <si>
+    <t>47.83%</t>
+  </si>
+  <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>BENLI M</t>
   </si>
   <si>
@@ -586,12 +658,45 @@
     <t>MATH-308</t>
   </si>
   <si>
+    <t>SHATALOV O</t>
+  </si>
+  <si>
+    <t>21.28%</t>
+  </si>
+  <si>
+    <t>48.94%</t>
+  </si>
+  <si>
+    <t>10.64%</t>
+  </si>
+  <si>
+    <t>4.26%</t>
+  </si>
+  <si>
     <t>SIFUENTES J</t>
   </si>
   <si>
     <t>42.86%</t>
   </si>
   <si>
+    <t>LARIOS A</t>
+  </si>
+  <si>
+    <t>19.44%</t>
+  </si>
+  <si>
+    <t>13.89%</t>
+  </si>
+  <si>
+    <t>KIM J</t>
+  </si>
+  <si>
+    <t>71.43%</t>
+  </si>
+  <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>NARCOWICH F</t>
   </si>
   <si>
@@ -601,45 +706,12 @@
     <t>18.52%</t>
   </si>
   <si>
-    <t>LARIOS A</t>
-  </si>
-  <si>
-    <t>19.44%</t>
-  </si>
-  <si>
-    <t>13.89%</t>
-  </si>
-  <si>
-    <t>SHATALOV O</t>
-  </si>
-  <si>
-    <t>21.28%</t>
-  </si>
-  <si>
-    <t>48.94%</t>
-  </si>
-  <si>
-    <t>10.64%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>4.26%</t>
-  </si>
-  <si>
-    <t>KIM J</t>
-  </si>
-  <si>
-    <t>71.43%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
     <t>MATH-311</t>
   </si>
   <si>
+    <t>NAZAROV M</t>
+  </si>
+  <si>
     <t>VALETTAS P</t>
   </si>
   <si>
@@ -652,7 +724,16 @@
     <t>10.81%</t>
   </si>
   <si>
-    <t>NAZAROV M</t>
+    <t>MATH-367</t>
+  </si>
+  <si>
+    <t>SCHIELACK V</t>
+  </si>
+  <si>
+    <t>47.37%</t>
+  </si>
+  <si>
+    <t>5.26%</t>
   </si>
   <si>
     <t>MATH-409</t>
@@ -691,15 +772,9 @@
     <t>ROJAS J</t>
   </si>
   <si>
-    <t>38.46%</t>
-  </si>
-  <si>
     <t>23.08%</t>
   </si>
   <si>
-    <t>30.77%</t>
-  </si>
-  <si>
     <t>7.69%</t>
   </si>
   <si>
@@ -751,24 +826,18 @@
     <t>46.15%</t>
   </si>
   <si>
-    <t>15.38%</t>
-  </si>
-  <si>
     <t>MATH-663</t>
   </si>
   <si>
+    <t>KERR D</t>
+  </si>
+  <si>
     <t>HOWARD P</t>
   </si>
   <si>
     <t>94.74%</t>
   </si>
   <si>
-    <t>5.26%</t>
-  </si>
-  <si>
-    <t>KERR D</t>
-  </si>
-  <si>
     <t>MATH-666</t>
   </si>
   <si>
@@ -778,13 +847,25 @@
     <t>MATH-696</t>
   </si>
   <si>
+    <t>MANUEL D</t>
+  </si>
+  <si>
+    <t>93.75%</t>
+  </si>
+  <si>
     <t>PILANT M</t>
   </si>
   <si>
-    <t>MANUEL D</t>
-  </si>
-  <si>
-    <t>93.75%</t>
+    <t>PHYS-201</t>
+  </si>
+  <si>
+    <t>GERITY J</t>
+  </si>
+  <si>
+    <t>31.94%</t>
+  </si>
+  <si>
+    <t>23.61%</t>
   </si>
   <si>
     <t>PHYS-202</t>
@@ -826,7 +907,7 @@
     <t>ROSE S</t>
   </si>
   <si>
-    <t>9.52%</t>
+    <t>10.26%</t>
   </si>
   <si>
     <t>PHYS-222</t>
@@ -883,6 +964,18 @@
     <t>STAT-302</t>
   </si>
   <si>
+    <t>HE K</t>
+  </si>
+  <si>
+    <t>30.91%</t>
+  </si>
+  <si>
+    <t>10.91%</t>
+  </si>
+  <si>
+    <t>1.82%</t>
+  </si>
+  <si>
     <t>SONG Q</t>
   </si>
   <si>
@@ -901,13 +994,43 @@
     <t>JEONG J</t>
   </si>
   <si>
-    <t>33.90%</t>
-  </si>
-  <si>
-    <t>42.37%</t>
-  </si>
-  <si>
-    <t>20.34%</t>
+    <t>35.58%</t>
+  </si>
+  <si>
+    <t>41.35%</t>
+  </si>
+  <si>
+    <t>18.27%</t>
+  </si>
+  <si>
+    <t>2.88%</t>
+  </si>
+  <si>
+    <t>1.92%</t>
+  </si>
+  <si>
+    <t>STAT-303</t>
+  </si>
+  <si>
+    <t>RAHMAN S</t>
+  </si>
+  <si>
+    <t>35.00%</t>
+  </si>
+  <si>
+    <t>21.67%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>SHIN M</t>
+  </si>
+  <si>
+    <t>55.00%</t>
+  </si>
+  <si>
+    <t>11.43%</t>
   </si>
   <si>
     <t>STAT-604</t>
@@ -949,12 +1072,6 @@
     <t>KOLODZIEJ E</t>
   </si>
   <si>
-    <t>55.00%</t>
-  </si>
-  <si>
-    <t>15.00%</t>
-  </si>
-  <si>
     <t>STAT-642</t>
   </si>
   <si>
@@ -967,6 +1084,12 @@
     <t>STAT-651</t>
   </si>
   <si>
+    <t>46.30%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>DAHM F</t>
   </si>
   <si>
@@ -974,12 +1097,6 @@
   </si>
   <si>
     <t>52.31%</t>
-  </si>
-  <si>
-    <t>46.30%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
   </si>
   <si>
     <t>STAT-652</t>
@@ -1355,7 +1472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1646,32 +1763,32 @@
         <v>55</v>
       </c>
       <c r="C28" t="n">
-        <v>2.27</v>
+        <v>2.3027</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
@@ -1694,18 +1811,18 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" t="n">
         <v>3.833</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
@@ -1722,21 +1839,21 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" t="n">
         <v>3.8</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -1750,108 +1867,108 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" t="n">
         <v>2.238</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" t="n">
         <v>2.343</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" t="n">
         <v>2.581</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" t="n">
         <v>2.934</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
@@ -1862,164 +1979,164 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C52" t="n">
         <v>2.5</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55" t="n">
         <v>2.578</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" t="n">
         <v>2.342</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C61" t="n">
         <v>2.9355</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G61" t="s">
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C64" t="n">
         <v>3.0715</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" t="n">
         <v>3.222</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G67" t="s">
         <v>18</v>
@@ -2030,12 +2147,12 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
@@ -2058,7 +2175,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C71" t="n">
         <v>4</v>
@@ -2081,580 +2198,621 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C74" t="n">
         <v>2.714</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C77" t="n">
-        <v>2.733</v>
+        <v>2.2355</v>
       </c>
       <c r="D77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F77" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>2.458</v>
       </c>
       <c r="D78" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.0205</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" t="s">
+        <v>142</v>
+      </c>
+      <c r="G79" t="s">
         <v>28</v>
       </c>
-      <c r="E78" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" t="s">
-        <v>133</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>134</v>
+      <c r="H79" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="B81" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81" t="s">
-        <v>58</v>
-      </c>
-      <c r="H81" t="s">
-        <v>18</v>
+      <c r="A81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C82" t="n">
-        <v>2.522</v>
+        <v>2.625</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G82" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C83" t="n">
-        <v>2.107</v>
+        <v>2.6</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H83" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="B84" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C84" t="n">
-        <v>1.913</v>
+        <v>2.333</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E84" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G84" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="H84" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C85" t="n">
-        <v>2.333</v>
+        <v>1.825</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C86" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" t="s">
+        <v>163</v>
+      </c>
+      <c r="F86" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" t="s">
+        <v>165</v>
+      </c>
+      <c r="H86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.107</v>
+      </c>
+      <c r="D87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" t="s">
+        <v>167</v>
+      </c>
+      <c r="H87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="n">
         <v>2.333</v>
       </c>
-      <c r="D86" t="s">
-        <v>131</v>
-      </c>
-      <c r="E86" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" t="s">
-        <v>137</v>
-      </c>
-      <c r="G86" t="s">
-        <v>67</v>
-      </c>
-      <c r="H86" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="B89" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="D88" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" t="n">
         <v>2.667</v>
       </c>
-      <c r="D89" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" t="s">
-        <v>153</v>
-      </c>
-      <c r="F89" t="s">
-        <v>118</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>155</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" t="n">
         <v>2.3405</v>
       </c>
-      <c r="D92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E92" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92" t="s">
-        <v>157</v>
-      </c>
-      <c r="G92" t="s">
-        <v>67</v>
-      </c>
-      <c r="H92" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>155</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.562</v>
-      </c>
-      <c r="D95" t="s">
-        <v>160</v>
-      </c>
-      <c r="E95" t="s">
-        <v>161</v>
-      </c>
-      <c r="F95" t="s">
-        <v>161</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="D94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" t="s">
+        <v>176</v>
+      </c>
+      <c r="G94" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="D97" t="s">
+        <v>179</v>
+      </c>
+      <c r="E97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
+        <v>181</v>
+      </c>
+      <c r="G97" t="s">
+        <v>182</v>
+      </c>
+      <c r="H97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D98" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
+        <v>187</v>
+      </c>
+      <c r="G98" t="s">
+        <v>188</v>
+      </c>
+      <c r="H98" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.8055</v>
+      </c>
+      <c r="D101" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101" t="s">
+        <v>193</v>
+      </c>
+      <c r="H101" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="D104" t="s">
+        <v>197</v>
+      </c>
+      <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
+        <v>199</v>
+      </c>
+      <c r="G104" t="s">
+        <v>200</v>
+      </c>
+      <c r="H104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="D107" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" t="s">
+        <v>203</v>
+      </c>
+      <c r="H107" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.956</v>
+      </c>
+      <c r="D108" t="s">
+        <v>164</v>
+      </c>
+      <c r="E108" t="s">
+        <v>205</v>
+      </c>
+      <c r="F108" t="s">
         <v>162</v>
       </c>
-      <c r="H95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="D96" t="s">
-        <v>164</v>
-      </c>
-      <c r="E96" t="s">
-        <v>165</v>
-      </c>
-      <c r="F96" t="s">
-        <v>166</v>
-      </c>
-      <c r="G96" t="s">
-        <v>167</v>
-      </c>
-      <c r="H96" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.8055</v>
-      </c>
-      <c r="D99" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F99" t="s">
-        <v>56</v>
-      </c>
-      <c r="G99" t="s">
-        <v>172</v>
-      </c>
-      <c r="H99" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.286</v>
-      </c>
-      <c r="D102" t="s">
-        <v>176</v>
-      </c>
-      <c r="E102" t="s">
-        <v>177</v>
-      </c>
-      <c r="F102" t="s">
-        <v>178</v>
-      </c>
-      <c r="G102" t="s">
-        <v>179</v>
-      </c>
-      <c r="H102" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="B105" t="s">
-        <v>170</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.688</v>
-      </c>
-      <c r="D105" t="s">
-        <v>90</v>
-      </c>
-      <c r="E105" t="s">
-        <v>126</v>
-      </c>
-      <c r="F105" t="s">
-        <v>90</v>
-      </c>
-      <c r="G105" t="s">
-        <v>182</v>
-      </c>
-      <c r="H105" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" t="s">
-        <v>183</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2.824</v>
-      </c>
-      <c r="D106" t="s">
-        <v>184</v>
-      </c>
-      <c r="E106" t="s">
-        <v>185</v>
-      </c>
-      <c r="F106" t="s">
-        <v>186</v>
-      </c>
-      <c r="G106" t="s">
-        <v>187</v>
-      </c>
-      <c r="H106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>189</v>
+      <c r="G108" t="s">
+        <v>206</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C109" t="n">
-        <v>2.714</v>
+        <v>2.824</v>
       </c>
       <c r="D109" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="E109" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="G109" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>192</v>
-      </c>
-      <c r="C110" t="n">
-        <v>3.148</v>
-      </c>
-      <c r="D110" t="s">
-        <v>118</v>
-      </c>
-      <c r="E110" t="s">
-        <v>193</v>
-      </c>
-      <c r="F110" t="s">
-        <v>194</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.333</v>
-      </c>
-      <c r="D111" t="s">
-        <v>196</v>
-      </c>
-      <c r="E111" t="s">
-        <v>56</v>
-      </c>
-      <c r="F111" t="s">
-        <v>118</v>
-      </c>
-      <c r="G111" t="s">
-        <v>197</v>
-      </c>
-      <c r="H111" t="s">
-        <v>32</v>
+      <c r="A111" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C112" t="n">
         <v>2.707</v>
       </c>
       <c r="D112" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E112" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G112" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="H112" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C113" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="D113" t="s">
+        <v>71</v>
+      </c>
+      <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
+        <v>71</v>
+      </c>
+      <c r="G113" t="s">
+        <v>128</v>
+      </c>
+      <c r="H113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="B114" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="D114" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114" t="s">
+        <v>146</v>
+      </c>
+      <c r="F114" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" t="s">
+        <v>223</v>
+      </c>
+      <c r="H114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" t="n">
         <v>3.571</v>
       </c>
-      <c r="D113" t="s">
-        <v>205</v>
-      </c>
-      <c r="E113" t="s">
-        <v>71</v>
-      </c>
-      <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>207</v>
+      <c r="D115" t="s">
+        <v>225</v>
+      </c>
+      <c r="E115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="B116" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C116" t="n">
-        <v>3.27</v>
+        <v>3.148</v>
       </c>
       <c r="D116" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="G116" t="s">
         <v>18</v>
@@ -2663,192 +2821,192 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>212</v>
-      </c>
-      <c r="C117" t="n">
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" t="n">
         <v>3</v>
       </c>
-      <c r="D117" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" t="s">
-        <v>137</v>
-      </c>
-      <c r="F117" t="s">
-        <v>136</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>213</v>
+      <c r="D119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" t="s">
+        <v>150</v>
+      </c>
+      <c r="F119" t="s">
+        <v>149</v>
+      </c>
+      <c r="G119" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="B120" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="C120" t="n">
-        <v>2.882</v>
+        <v>3.27</v>
       </c>
       <c r="D120" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E120" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G120" t="s">
         <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C123" t="n">
-        <v>3.311</v>
+        <v>3.21</v>
       </c>
       <c r="D123" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="E123" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="G123" t="s">
         <v>18</v>
       </c>
       <c r="H123" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C126" t="n">
-        <v>2.6</v>
+        <v>2.882</v>
       </c>
       <c r="D126" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="E126" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="F126" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="G126" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C129" t="n">
-        <v>2.923</v>
+        <v>3.311</v>
       </c>
       <c r="D129" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E129" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="F129" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="G129" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C132" t="n">
-        <v>2.741</v>
+        <v>2.6</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="E132" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="F132" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="G132" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C135" t="n">
-        <v>3.323</v>
+        <v>2.923</v>
       </c>
       <c r="D135" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="E135" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="H135" t="s">
         <v>18</v>
@@ -2856,27 +3014,27 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C138" t="n">
-        <v>3.857</v>
+        <v>2.741</v>
       </c>
       <c r="D138" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="E138" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="H138" t="s">
         <v>18</v>
@@ -2884,24 +3042,24 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C141" t="n">
-        <v>3.262</v>
+        <v>3.323</v>
       </c>
       <c r="D141" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="E141" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G141" t="s">
         <v>18</v>
@@ -2912,21 +3070,21 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C144" t="n">
-        <v>3.947</v>
+        <v>3.857</v>
       </c>
       <c r="D144" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E144" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
@@ -2938,650 +3096,808 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>250</v>
-      </c>
-      <c r="C145" t="n">
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.262</v>
+      </c>
+      <c r="D147" t="s">
+        <v>180</v>
+      </c>
+      <c r="E147" t="s">
+        <v>269</v>
+      </c>
+      <c r="F147" t="s">
+        <v>179</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="B150" t="s">
+        <v>271</v>
+      </c>
+      <c r="C150" t="n">
         <v>4</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D150" t="s">
         <v>17</v>
       </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="B148" t="s">
-        <v>252</v>
-      </c>
-      <c r="C148" t="n">
-        <v>4</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>253</v>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C151" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="D151" t="s">
+        <v>273</v>
+      </c>
+      <c r="E151" t="s">
+        <v>239</v>
+      </c>
+      <c r="F151" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="B154" t="s">
+        <v>275</v>
+      </c>
+      <c r="C154" t="n">
         <v>4</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D154" t="s">
         <v>17</v>
       </c>
-      <c r="E151" t="s">
-        <v>18</v>
-      </c>
-      <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>18</v>
-      </c>
-      <c r="H151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="B152" t="s">
-        <v>255</v>
-      </c>
-      <c r="C152" t="n">
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="B157" t="s">
+        <v>277</v>
+      </c>
+      <c r="C157" t="n">
         <v>3.938</v>
       </c>
-      <c r="D152" t="s">
-        <v>256</v>
-      </c>
-      <c r="E152" t="s">
-        <v>182</v>
-      </c>
-      <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>18</v>
-      </c>
-      <c r="H152" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="B155" t="s">
-        <v>258</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2.9833</v>
-      </c>
-      <c r="D155" t="s">
-        <v>109</v>
-      </c>
-      <c r="E155" t="s">
-        <v>259</v>
-      </c>
-      <c r="F155" t="s">
-        <v>260</v>
-      </c>
-      <c r="G155" t="s">
-        <v>261</v>
-      </c>
-      <c r="H155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
-        <v>262</v>
+      <c r="D157" t="s">
+        <v>278</v>
+      </c>
+      <c r="E157" t="s">
+        <v>203</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C158" t="n">
-        <v>2.2818</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>264</v>
+        <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="H158" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C161" t="n">
-        <v>2.143</v>
+        <v>1.818</v>
       </c>
       <c r="D161" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="G161" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="H161" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C164" t="n">
-        <v>2.643</v>
+        <v>2.9833</v>
       </c>
       <c r="D164" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E164" t="s">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="F164" t="s">
-        <v>70</v>
+        <v>287</v>
       </c>
       <c r="G164" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="H164" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>2.2818</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="E167" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="H167" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C170" t="n">
+        <v>2.3495</v>
+      </c>
+      <c r="D170" t="s">
+        <v>179</v>
+      </c>
+      <c r="E170" t="s">
+        <v>119</v>
+      </c>
+      <c r="F170" t="s">
+        <v>181</v>
+      </c>
+      <c r="G170" t="s">
+        <v>297</v>
+      </c>
+      <c r="H170" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
+        <v>299</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.643</v>
+      </c>
+      <c r="D173" t="s">
+        <v>71</v>
+      </c>
+      <c r="E173" t="s">
+        <v>220</v>
+      </c>
+      <c r="F173" t="s">
+        <v>71</v>
+      </c>
+      <c r="G173" t="s">
+        <v>80</v>
+      </c>
+      <c r="H173" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" t="n">
         <v>2.803</v>
       </c>
-      <c r="D170" t="s">
-        <v>277</v>
-      </c>
-      <c r="E170" t="s">
-        <v>278</v>
-      </c>
-      <c r="F170" t="s">
-        <v>279</v>
-      </c>
-      <c r="G170" t="s">
-        <v>280</v>
-      </c>
-      <c r="H170" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="B171" t="s">
-        <v>282</v>
-      </c>
-      <c r="C171" t="n">
+      <c r="D179" t="s">
+        <v>304</v>
+      </c>
+      <c r="E179" t="s">
+        <v>305</v>
+      </c>
+      <c r="F179" t="s">
+        <v>306</v>
+      </c>
+      <c r="G179" t="s">
+        <v>307</v>
+      </c>
+      <c r="H179" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>309</v>
+      </c>
+      <c r="C180" t="n">
         <v>2.712</v>
       </c>
-      <c r="D171" t="s">
-        <v>283</v>
-      </c>
-      <c r="E171" t="s">
-        <v>284</v>
-      </c>
-      <c r="F171" t="s">
-        <v>285</v>
-      </c>
-      <c r="G171" t="s">
-        <v>286</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="D180" t="s">
+        <v>310</v>
+      </c>
+      <c r="E180" t="s">
+        <v>311</v>
+      </c>
+      <c r="F180" t="s">
+        <v>312</v>
+      </c>
+      <c r="G180" t="s">
+        <v>313</v>
+      </c>
+      <c r="H180" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="B183" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="D183" t="s">
+        <v>317</v>
+      </c>
+      <c r="E183" t="s">
+        <v>150</v>
+      </c>
+      <c r="F183" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="B174" t="s">
-        <v>289</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3.085</v>
-      </c>
-      <c r="D174" t="s">
-        <v>290</v>
-      </c>
-      <c r="E174" t="s">
-        <v>291</v>
-      </c>
-      <c r="F174" t="s">
-        <v>292</v>
-      </c>
-      <c r="G174" t="s">
-        <v>293</v>
-      </c>
-      <c r="H174" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="B175" t="s">
-        <v>294</v>
-      </c>
-      <c r="C175" t="n">
-        <v>3.051</v>
-      </c>
-      <c r="D175" t="s">
-        <v>295</v>
-      </c>
-      <c r="E175" t="s">
-        <v>296</v>
-      </c>
-      <c r="F175" t="s">
-        <v>297</v>
-      </c>
-      <c r="G175" t="s">
-        <v>293</v>
-      </c>
-      <c r="H175" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>299</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D178" t="s">
-        <v>300</v>
-      </c>
-      <c r="E178" t="s">
-        <v>87</v>
-      </c>
-      <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>301</v>
-      </c>
-      <c r="H178" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>303</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.2575</v>
-      </c>
-      <c r="D181" t="s">
-        <v>304</v>
-      </c>
-      <c r="E181" t="s">
-        <v>305</v>
-      </c>
-      <c r="F181" t="s">
-        <v>306</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>307</v>
+      <c r="G183" t="s">
+        <v>318</v>
+      </c>
+      <c r="H183" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="B184" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C184" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="D184" t="s">
+        <v>321</v>
+      </c>
+      <c r="E184" t="s">
+        <v>322</v>
+      </c>
+      <c r="F184" t="s">
+        <v>323</v>
+      </c>
+      <c r="G184" t="s">
+        <v>324</v>
+      </c>
+      <c r="H184" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
+        <v>325</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="D185" t="s">
+        <v>326</v>
+      </c>
+      <c r="E185" t="s">
+        <v>327</v>
+      </c>
+      <c r="F185" t="s">
+        <v>328</v>
+      </c>
+      <c r="G185" t="s">
+        <v>329</v>
+      </c>
+      <c r="H185" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="B188" t="s">
+        <v>332</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.0915</v>
+      </c>
+      <c r="D188" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" t="s">
+        <v>333</v>
+      </c>
+      <c r="F188" t="s">
+        <v>334</v>
+      </c>
+      <c r="G188" t="s">
+        <v>335</v>
+      </c>
+      <c r="H188" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>336</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.1145</v>
+      </c>
+      <c r="D189" t="s">
+        <v>149</v>
+      </c>
+      <c r="E189" t="s">
+        <v>337</v>
+      </c>
+      <c r="F189" t="s">
+        <v>338</v>
+      </c>
+      <c r="G189" t="s">
+        <v>168</v>
+      </c>
+      <c r="H189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
+        <v>340</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>341</v>
+      </c>
+      <c r="E192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F192" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" t="s">
+        <v>342</v>
+      </c>
+      <c r="H192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>344</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.2575</v>
+      </c>
+      <c r="D195" t="s">
+        <v>345</v>
+      </c>
+      <c r="E195" t="s">
+        <v>346</v>
+      </c>
+      <c r="F195" t="s">
+        <v>347</v>
+      </c>
+      <c r="G195" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="B198" t="s">
+        <v>349</v>
+      </c>
+      <c r="C198" t="n">
         <v>3.5545</v>
       </c>
-      <c r="D184" t="s">
-        <v>205</v>
-      </c>
-      <c r="E184" t="s">
-        <v>71</v>
-      </c>
-      <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>18</v>
-      </c>
-      <c r="H184" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>310</v>
-      </c>
-      <c r="C187" t="n">
+      <c r="D198" t="s">
+        <v>225</v>
+      </c>
+      <c r="E198" t="s">
+        <v>72</v>
+      </c>
+      <c r="F198" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="B201" t="s">
+        <v>351</v>
+      </c>
+      <c r="C201" t="n">
         <v>3.396</v>
       </c>
-      <c r="D187" t="s">
-        <v>311</v>
-      </c>
-      <c r="E187" t="s">
-        <v>136</v>
-      </c>
-      <c r="F187" t="s">
-        <v>312</v>
-      </c>
-      <c r="G187" t="s">
-        <v>18</v>
-      </c>
-      <c r="H187" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>314</v>
-      </c>
-      <c r="C190" t="n">
+      <c r="D201" t="s">
+        <v>337</v>
+      </c>
+      <c r="E201" t="s">
+        <v>149</v>
+      </c>
+      <c r="F201" t="s">
+        <v>143</v>
+      </c>
+      <c r="G201" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="B204" t="s">
+        <v>353</v>
+      </c>
+      <c r="C204" t="n">
         <v>3.125</v>
       </c>
-      <c r="D190" t="s">
-        <v>315</v>
-      </c>
-      <c r="E190" t="s">
-        <v>118</v>
-      </c>
-      <c r="F190" t="s">
-        <v>131</v>
-      </c>
-      <c r="G190" t="s">
-        <v>18</v>
-      </c>
-      <c r="H190" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="B193" t="s">
-        <v>317</v>
-      </c>
-      <c r="C193" t="n">
+      <c r="D204" t="s">
+        <v>354</v>
+      </c>
+      <c r="E204" t="s">
+        <v>119</v>
+      </c>
+      <c r="F204" t="s">
+        <v>153</v>
+      </c>
+      <c r="G204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H204" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="B207" t="s">
+        <v>344</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.411</v>
+      </c>
+      <c r="D207" t="s">
+        <v>127</v>
+      </c>
+      <c r="E207" t="s">
+        <v>356</v>
+      </c>
+      <c r="F207" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>358</v>
+      </c>
+      <c r="C208" t="n">
         <v>3.477</v>
       </c>
-      <c r="D193" t="s">
-        <v>318</v>
-      </c>
-      <c r="E193" t="s">
-        <v>319</v>
-      </c>
-      <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>18</v>
-      </c>
-      <c r="H193" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="B194" t="s">
-        <v>303</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.411</v>
-      </c>
-      <c r="D194" t="s">
-        <v>126</v>
-      </c>
-      <c r="E194" t="s">
-        <v>320</v>
-      </c>
-      <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>18</v>
-      </c>
-      <c r="H194" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>323</v>
-      </c>
-      <c r="C197" t="n">
+      <c r="D208" t="s">
+        <v>359</v>
+      </c>
+      <c r="E208" t="s">
+        <v>360</v>
+      </c>
+      <c r="F208" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" t="s">
+        <v>18</v>
+      </c>
+      <c r="H208" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>362</v>
+      </c>
+      <c r="C211" t="n">
         <v>3.514</v>
       </c>
-      <c r="D197" t="s">
-        <v>324</v>
-      </c>
-      <c r="E197" t="s">
-        <v>209</v>
-      </c>
-      <c r="F197" t="s">
-        <v>325</v>
-      </c>
-      <c r="G197" t="s">
-        <v>18</v>
-      </c>
-      <c r="H197" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>327</v>
-      </c>
-      <c r="C200" t="n">
+      <c r="D211" t="s">
+        <v>363</v>
+      </c>
+      <c r="E211" t="s">
+        <v>233</v>
+      </c>
+      <c r="F211" t="s">
+        <v>364</v>
+      </c>
+      <c r="G211" t="s">
+        <v>18</v>
+      </c>
+      <c r="H211" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
+        <v>366</v>
+      </c>
+      <c r="C214" t="n">
         <v>4</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D214" t="s">
         <v>17</v>
       </c>
-      <c r="E200" t="s">
-        <v>18</v>
-      </c>
-      <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>18</v>
-      </c>
-      <c r="H200" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="B203" t="s">
-        <v>329</v>
-      </c>
-      <c r="C203" t="n">
+      <c r="E214" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" t="s">
+        <v>18</v>
+      </c>
+      <c r="H214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="B217" t="s">
+        <v>368</v>
+      </c>
+      <c r="C217" t="n">
         <v>3.516</v>
       </c>
-      <c r="D203" t="s">
-        <v>330</v>
-      </c>
-      <c r="E203" t="s">
-        <v>331</v>
-      </c>
-      <c r="F203" t="s">
-        <v>332</v>
-      </c>
-      <c r="G203" t="s">
-        <v>18</v>
-      </c>
-      <c r="H203" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="B206" t="s">
-        <v>334</v>
-      </c>
-      <c r="C206" t="n">
+      <c r="D217" t="s">
+        <v>369</v>
+      </c>
+      <c r="E217" t="s">
+        <v>370</v>
+      </c>
+      <c r="F217" t="s">
+        <v>371</v>
+      </c>
+      <c r="G217" t="s">
+        <v>18</v>
+      </c>
+      <c r="H217" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="B220" t="s">
+        <v>373</v>
+      </c>
+      <c r="C220" t="n">
         <v>4</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D220" t="s">
         <v>17</v>
       </c>
-      <c r="E206" t="s">
-        <v>18</v>
-      </c>
-      <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s">
-        <v>18</v>
-      </c>
-      <c r="H206" t="s">
+      <c r="E220" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" t="s">
         <v>18</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 SC.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 SC.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ASTR-101</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>2.63%</t>
   </si>
   <si>
+    <t>2.56%</t>
+  </si>
+  <si>
     <t>ASTR-102</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>5.56%</t>
   </si>
   <si>
+    <t>1.82%</t>
+  </si>
+  <si>
     <t>BIOL-112</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t>2.78%</t>
   </si>
   <si>
+    <t>2.70%</t>
+  </si>
+  <si>
     <t>BIOL-213</t>
   </si>
   <si>
@@ -178,6 +190,9 @@
     <t>2.22%</t>
   </si>
   <si>
+    <t>2.17%</t>
+  </si>
+  <si>
     <t>BIOL-320</t>
   </si>
   <si>
@@ -199,6 +214,9 @@
     <t>2.97%</t>
   </si>
   <si>
+    <t>1.94%</t>
+  </si>
+  <si>
     <t>BIOL-602</t>
   </si>
   <si>
@@ -223,6 +241,9 @@
     <t>20.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>CHEM-101</t>
   </si>
   <si>
@@ -241,6 +262,9 @@
     <t>11.90%</t>
   </si>
   <si>
+    <t>2.33%</t>
+  </si>
+  <si>
     <t>CHEM-102</t>
   </si>
   <si>
@@ -283,6 +307,9 @@
     <t>30.43%</t>
   </si>
   <si>
+    <t>2.13%</t>
+  </si>
+  <si>
     <t>CHEM-222</t>
   </si>
   <si>
@@ -322,6 +349,9 @@
     <t>4.69%</t>
   </si>
   <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>CHEM-228</t>
   </si>
   <si>
@@ -343,6 +373,9 @@
     <t>13.41%</t>
   </si>
   <si>
+    <t>5.75%</t>
+  </si>
+  <si>
     <t>CHEM-237</t>
   </si>
   <si>
@@ -379,9 +412,6 @@
     <t>55.56%</t>
   </si>
   <si>
-    <t>11.11%</t>
-  </si>
-  <si>
     <t>CHEM-491</t>
   </si>
   <si>
@@ -403,6 +433,9 @@
     <t>14.29%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>MATH-141</t>
   </si>
   <si>
@@ -421,6 +454,9 @@
     <t>14.89%</t>
   </si>
   <si>
+    <t>9.62%</t>
+  </si>
+  <si>
     <t>ARORA R</t>
   </si>
   <si>
@@ -436,6 +472,9 @@
     <t>4.50%</t>
   </si>
   <si>
+    <t>7.50%</t>
+  </si>
+  <si>
     <t>KAHLIG J</t>
   </si>
   <si>
@@ -448,6 +487,9 @@
     <t>15.00%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>MATH-142</t>
   </si>
   <si>
@@ -481,6 +523,9 @@
     <t>26.67%</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>KESSLER J</t>
   </si>
   <si>
@@ -499,6 +544,9 @@
     <t>16.39%</t>
   </si>
   <si>
+    <t>6.15%</t>
+  </si>
+  <si>
     <t>LIU W</t>
   </si>
   <si>
@@ -514,6 +562,9 @@
     <t>8.70%</t>
   </si>
   <si>
+    <t>8.00%</t>
+  </si>
+  <si>
     <t>ALLEN A</t>
   </si>
   <si>
@@ -523,6 +574,9 @@
     <t>3.57%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>LIU J</t>
   </si>
   <si>
@@ -550,6 +604,9 @@
     <t>12.00%</t>
   </si>
   <si>
+    <t>21.88%</t>
+  </si>
+  <si>
     <t>MATH-152</t>
   </si>
   <si>
@@ -565,7 +622,7 @@
     <t>9.23%</t>
   </si>
   <si>
-    <t>6.15%</t>
+    <t>10.96%</t>
   </si>
   <si>
     <t>SHI K</t>
@@ -586,6 +643,9 @@
     <t>4.00%</t>
   </si>
   <si>
+    <t>7.41%</t>
+  </si>
+  <si>
     <t>MATH-167</t>
   </si>
   <si>
@@ -601,6 +661,9 @@
     <t>2.08%</t>
   </si>
   <si>
+    <t>2.04%</t>
+  </si>
+  <si>
     <t>MATH-251</t>
   </si>
   <si>
@@ -622,12 +685,12 @@
     <t>9.86%</t>
   </si>
   <si>
+    <t>2.74%</t>
+  </si>
+  <si>
     <t>MATH-304</t>
   </si>
   <si>
-    <t>6.25%</t>
-  </si>
-  <si>
     <t>LIANG C</t>
   </si>
   <si>
@@ -637,6 +700,9 @@
     <t>4.35%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>BENLI M</t>
   </si>
   <si>
@@ -655,6 +721,9 @@
     <t>2.94%</t>
   </si>
   <si>
+    <t>8.11%</t>
+  </si>
+  <si>
     <t>MATH-308</t>
   </si>
   <si>
@@ -679,6 +748,9 @@
     <t>42.86%</t>
   </si>
   <si>
+    <t>12.50%</t>
+  </si>
+  <si>
     <t>LARIOS A</t>
   </si>
   <si>
@@ -694,9 +766,6 @@
     <t>71.43%</t>
   </si>
   <si>
-    <t>4.76%</t>
-  </si>
-  <si>
     <t>NARCOWICH F</t>
   </si>
   <si>
@@ -763,9 +832,6 @@
     <t>COMECH A</t>
   </si>
   <si>
-    <t>6.67%</t>
-  </si>
-  <si>
     <t>MATH-423</t>
   </si>
   <si>
@@ -790,9 +856,6 @@
     <t>37.04%</t>
   </si>
   <si>
-    <t>7.41%</t>
-  </si>
-  <si>
     <t>MATH-601</t>
   </si>
   <si>
@@ -808,6 +871,9 @@
     <t>9.68%</t>
   </si>
   <si>
+    <t>8.82%</t>
+  </si>
+  <si>
     <t>MATH-602</t>
   </si>
   <si>
@@ -883,6 +949,9 @@
     <t>3.64%</t>
   </si>
   <si>
+    <t>1.79%</t>
+  </si>
+  <si>
     <t>PHYS-208</t>
   </si>
   <si>
@@ -901,6 +970,9 @@
     <t>24.14%</t>
   </si>
   <si>
+    <t>5.69%</t>
+  </si>
+  <si>
     <t>PHYS-218</t>
   </si>
   <si>
@@ -910,6 +982,9 @@
     <t>10.26%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>PHYS-222</t>
   </si>
   <si>
@@ -943,6 +1018,9 @@
     <t>1.64%</t>
   </si>
   <si>
+    <t>3.17%</t>
+  </si>
+  <si>
     <t>HATFIELD L</t>
   </si>
   <si>
@@ -961,6 +1039,9 @@
     <t>5.48%</t>
   </si>
   <si>
+    <t>3.95%</t>
+  </si>
+  <si>
     <t>STAT-302</t>
   </si>
   <si>
@@ -973,9 +1054,6 @@
     <t>10.91%</t>
   </si>
   <si>
-    <t>1.82%</t>
-  </si>
-  <si>
     <t>SONG Q</t>
   </si>
   <si>
@@ -1009,6 +1087,9 @@
     <t>1.92%</t>
   </si>
   <si>
+    <t>0.95%</t>
+  </si>
+  <si>
     <t>STAT-303</t>
   </si>
   <si>
@@ -1033,6 +1114,9 @@
     <t>11.43%</t>
   </si>
   <si>
+    <t>0.71%</t>
+  </si>
+  <si>
     <t>STAT-604</t>
   </si>
   <si>
@@ -1042,9 +1126,6 @@
     <t>67.39%</t>
   </si>
   <si>
-    <t>2.17%</t>
-  </si>
-  <si>
     <t>STAT-608</t>
   </si>
   <si>
@@ -1057,13 +1138,16 @@
     <t>65.52%</t>
   </si>
   <si>
-    <t>3.45%</t>
+    <t>3.33%</t>
   </si>
   <si>
     <t>STAT-626</t>
   </si>
   <si>
     <t>POURAHMADI M</t>
+  </si>
+  <si>
+    <t>4.55%</t>
   </si>
   <si>
     <t>STAT-630</t>
@@ -1173,12 +1257,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1472,15 +1555,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1505,2400 +1588,2673 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.974</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>3.895</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>2.472</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>2.5533</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
         <v>3.053</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
         <v>3.069</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C25" t="n">
         <v>2.6768</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
         <v>2.3027</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C34" t="n">
         <v>3.833</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C37" t="n">
         <v>3.8</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C40" t="n">
         <v>2.238</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C43" t="n">
         <v>2.343</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" t="s">
         <v>77</v>
-      </c>
-      <c r="F43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>70</v>
       </c>
       <c r="C46" t="n">
         <v>2.581</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>76</v>
       </c>
       <c r="C49" t="n">
         <v>2.934</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C52" t="n">
         <v>2.5</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C55" t="n">
         <v>2.578</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C58" t="n">
         <v>2.342</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" t="s">
+        <v>118</v>
+      </c>
+      <c r="I58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" t="s">
         <v>106</v>
-      </c>
-      <c r="G58" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>97</v>
       </c>
       <c r="C61" t="n">
         <v>2.9355</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>103</v>
       </c>
       <c r="C64" t="n">
         <v>3.0715</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C67" t="n">
         <v>3.222</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C74" t="n">
         <v>2.714</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C77" t="n">
         <v>2.2355</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C78" t="n">
         <v>2.458</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G78" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C79" t="n">
         <v>2.0205</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C82" t="n">
         <v>2.625</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C83" t="n">
         <v>2.6</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C84" t="n">
         <v>2.333</v>
       </c>
       <c r="D84" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E84" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G84" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C85" t="n">
         <v>1.825</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C86" t="n">
         <v>2.522</v>
       </c>
       <c r="D86" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G86" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="H86" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C87" t="n">
         <v>2.107</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C88" t="n">
         <v>2.333</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C91" t="n">
         <v>2.667</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F91" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C94" t="n">
         <v>2.3405</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G94" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H94" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C97" t="n">
         <v>2.478</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="E97" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F97" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G97" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H97" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C98" t="n">
         <v>1.96</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F98" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G98" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="H98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C101" t="n">
         <v>2.8055</v>
       </c>
       <c r="D101" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F101" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G101" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="H101" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C104" t="n">
         <v>2.286</v>
       </c>
       <c r="D104" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="E104" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F104" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G104" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H104" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C107" t="n">
         <v>2.688</v>
       </c>
       <c r="D107" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E107" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F107" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G107" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C108" t="n">
         <v>2.956</v>
       </c>
       <c r="D108" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F108" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G108" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C109" t="n">
         <v>2.824</v>
       </c>
       <c r="D109" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G109" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H109" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I109" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C112" t="n">
         <v>2.707</v>
       </c>
       <c r="D112" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="E112" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F112" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G112" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H112" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="C113" t="n">
         <v>2.714</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E113" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="F113" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C114" t="n">
         <v>2.333</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E114" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G114" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="H114" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C115" t="n">
         <v>3.571</v>
       </c>
       <c r="D115" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E115" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C116" t="n">
         <v>3.148</v>
       </c>
       <c r="D116" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E116" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="F116" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C119" t="n">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C120" t="n">
         <v>3.27</v>
       </c>
       <c r="D120" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E120" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="F120" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="G120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C123" t="n">
         <v>3.21</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E123" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="F123" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>262</v>
+      </c>
+      <c r="I123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C126" t="n">
         <v>2.882</v>
       </c>
       <c r="D126" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E126" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H126" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C129" t="n">
         <v>3.311</v>
       </c>
       <c r="D129" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="E129" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F129" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H129" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C132" t="n">
         <v>2.6</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E132" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F132" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G132" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="H132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C135" t="n">
         <v>2.923</v>
       </c>
       <c r="D135" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E135" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="F135" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G135" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="H135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C138" t="n">
         <v>2.741</v>
       </c>
       <c r="D138" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="F138" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G138" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="H138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="C141" t="n">
         <v>3.323</v>
       </c>
       <c r="D141" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="E141" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="F141" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I141" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="C144" t="n">
         <v>3.857</v>
       </c>
       <c r="D144" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E144" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G144" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I144" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C147" t="n">
         <v>3.262</v>
       </c>
       <c r="D147" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="F147" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G147" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I147" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C151" t="n">
         <v>3.947</v>
       </c>
       <c r="D151" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E151" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I151" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H154" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C157" t="n">
         <v>3.938</v>
       </c>
       <c r="D157" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E157" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G157" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="C161" t="n">
         <v>1.818</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E161" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F161" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="G161" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="H161" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="I161" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C164" t="n">
         <v>2.9833</v>
       </c>
       <c r="D164" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E164" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="G164" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="H164" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I164" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="C167" t="n">
         <v>2.2818</v>
       </c>
       <c r="D167" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="E167" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="G167" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="H167" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I167" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C170" t="n">
         <v>2.3495</v>
       </c>
       <c r="D170" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="E170" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F170" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G170" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="H170" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>321</v>
+      </c>
+      <c r="I170" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="C173" t="n">
         <v>2.643</v>
       </c>
       <c r="D173" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E173" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="F173" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G173" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H173" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I173" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G176" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C179" t="n">
         <v>2.803</v>
       </c>
       <c r="D179" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="E179" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="F179" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="G179" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="H179" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>333</v>
+      </c>
+      <c r="I179" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C180" t="n">
         <v>2.712</v>
       </c>
       <c r="D180" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="E180" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="G180" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="H180" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="I180" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C183" t="n">
         <v>2.873</v>
       </c>
       <c r="D183" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="E183" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F183" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="G183" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="H183" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I183" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="C184" t="n">
         <v>3.085</v>
       </c>
       <c r="D184" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="E184" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="G184" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="H184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C185" t="n">
         <v>3.059</v>
       </c>
       <c r="D185" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="E185" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="G185" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="H185" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>356</v>
+      </c>
+      <c r="I185" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C188" t="n">
         <v>3.0915</v>
       </c>
       <c r="D188" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E188" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="G188" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="H188" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>362</v>
+      </c>
+      <c r="I188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="C189" t="n">
         <v>3.1145</v>
       </c>
       <c r="D189" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E189" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="G189" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H189" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C192" t="n">
         <v>3.6</v>
       </c>
       <c r="D192" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="E192" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>342</v>
+        <v>58</v>
       </c>
       <c r="H192" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="C195" t="n">
         <v>3.2575</v>
       </c>
       <c r="D195" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="E195" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>347</v>
+        <v>186</v>
       </c>
       <c r="G195" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H195" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="C198" t="n">
         <v>3.5545</v>
       </c>
       <c r="D198" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E198" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G198" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H198" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I198" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="C201" t="n">
         <v>3.396</v>
       </c>
       <c r="D201" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="E201" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F201" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G201" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H201" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I201" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="C204" t="n">
         <v>3.125</v>
       </c>
       <c r="D204" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="E204" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F204" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G204" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H204" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I204" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="C207" t="n">
         <v>3.411</v>
       </c>
       <c r="D207" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E207" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H207" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>385</v>
+      </c>
+      <c r="I207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="C208" t="n">
         <v>3.477</v>
       </c>
       <c r="D208" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="E208" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G208" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H208" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I208" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="C211" t="n">
         <v>3.514</v>
       </c>
       <c r="D211" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="E211" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="F211" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="G211" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I211" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="C214" t="n">
         <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I214" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C217" t="n">
         <v>3.516</v>
       </c>
       <c r="D217" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="E217" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="F217" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="G217" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H217" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I217" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="C220" t="n">
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E220" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G220" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H220" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I220" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
